--- a/resultados/teste_rapido_parametros_V2.xlsx
+++ b/resultados/teste_rapido_parametros_V2.xlsx
@@ -503,16 +503,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
         <v>21480</v>
@@ -527,10 +527,10 @@
         <v>1.432</v>
       </c>
       <c r="J2" t="n">
-        <v>2.488005995750427</v>
+        <v>1.543355226516724</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04052937030792236</v>
+        <v>0.01286745071411133</v>
       </c>
     </row>
     <row r="3">
@@ -540,34 +540,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
         <v>0.12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>21440</v>
+        <v>21480</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H3" t="n">
-        <v>21440</v>
+        <v>21520</v>
       </c>
       <c r="I3" t="n">
-        <v>1.429333333333333</v>
+        <v>1.432</v>
       </c>
       <c r="J3" t="n">
-        <v>1.642811059951782</v>
+        <v>2.435471892356873</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08171701431274414</v>
+        <v>0.07817637920379639</v>
       </c>
     </row>
     <row r="4">
@@ -580,13 +580,13 @@
         <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>21440</v>
@@ -601,10 +601,10 @@
         <v>1.429333333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>2.456923604011536</v>
+        <v>2.414004921913147</v>
       </c>
       <c r="K4" t="n">
-        <v>0.007896542549133301</v>
+        <v>0.009323000907897949</v>
       </c>
     </row>
     <row r="5">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
         <v>0.18</v>
@@ -626,22 +626,22 @@
         <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>21400</v>
+        <v>21440</v>
       </c>
       <c r="G5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>21440</v>
       </c>
       <c r="I5" t="n">
-        <v>1.426666666666667</v>
+        <v>1.429333333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>1.481065511703491</v>
+        <v>2.483439564704895</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05457472801208496</v>
+        <v>0.03146851062774658</v>
       </c>
     </row>
     <row r="6">
@@ -651,13 +651,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
         <v>0.18</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -675,10 +675,10 @@
         <v>1.426666666666667</v>
       </c>
       <c r="J6" t="n">
-        <v>2.382423877716064</v>
+        <v>1.505411624908447</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06171464920043945</v>
+        <v>0.02430438995361328</v>
       </c>
     </row>
     <row r="7">
@@ -688,16 +688,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
         <v>0.12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>21400</v>
@@ -712,10 +712,10 @@
         <v>1.426666666666667</v>
       </c>
       <c r="J7" t="n">
-        <v>2.392042398452759</v>
+        <v>1.579231142997742</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04751753807067871</v>
+        <v>0.02576267719268799</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>21400</v>
@@ -749,10 +749,10 @@
         <v>1.426666666666667</v>
       </c>
       <c r="J8" t="n">
-        <v>1.443514347076416</v>
+        <v>1.509523630142212</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01002669334411621</v>
+        <v>0.06187868118286133</v>
       </c>
     </row>
     <row r="9">
@@ -786,10 +786,10 @@
         <v>1.426666666666667</v>
       </c>
       <c r="J9" t="n">
-        <v>1.574904918670654</v>
+        <v>1.446903705596924</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1534233093261719</v>
+        <v>0.0218813419342041</v>
       </c>
     </row>
     <row r="10">
@@ -802,31 +802,31 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="D10" t="n">
         <v>0.8</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>21360</v>
+        <v>21400</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H10" t="n">
-        <v>21360</v>
+        <v>21440</v>
       </c>
       <c r="I10" t="n">
-        <v>1.424</v>
+        <v>1.426666666666667</v>
       </c>
       <c r="J10" t="n">
-        <v>2.412285566329956</v>
+        <v>2.431864261627197</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1339380741119385</v>
+        <v>0.01687431335449219</v>
       </c>
     </row>
     <row r="11">
@@ -842,28 +842,28 @@
         <v>0.18</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>21360</v>
+        <v>21400</v>
       </c>
       <c r="G11" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H11" t="n">
         <v>21440</v>
       </c>
       <c r="I11" t="n">
-        <v>1.424</v>
+        <v>1.426666666666667</v>
       </c>
       <c r="J11" t="n">
-        <v>2.379085540771484</v>
+        <v>2.492204189300537</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02057051658630371</v>
+        <v>0.1217477321624756</v>
       </c>
     </row>
     <row r="12">
@@ -879,28 +879,28 @@
         <v>0.18</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>21320</v>
+        <v>21400</v>
       </c>
       <c r="G12" t="n">
         <v>40</v>
       </c>
       <c r="H12" t="n">
-        <v>21360</v>
+        <v>21440</v>
       </c>
       <c r="I12" t="n">
-        <v>1.421333333333333</v>
+        <v>1.426666666666667</v>
       </c>
       <c r="J12" t="n">
-        <v>1.499648451805115</v>
+        <v>1.574001550674438</v>
       </c>
       <c r="K12" t="n">
-        <v>0.08297097682952881</v>
+        <v>0.01518416404724121</v>
       </c>
     </row>
     <row r="13">
@@ -913,31 +913,31 @@
         <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="D13" t="n">
         <v>0.8</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>21320</v>
+        <v>21360</v>
       </c>
       <c r="G13" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>21360</v>
       </c>
       <c r="I13" t="n">
-        <v>1.421333333333333</v>
+        <v>1.424</v>
       </c>
       <c r="J13" t="n">
-        <v>1.466485500335693</v>
+        <v>1.498087286949158</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03115940093994141</v>
+        <v>0.01552808284759521</v>
       </c>
     </row>
     <row r="14">
@@ -950,31 +950,31 @@
         <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="D14" t="n">
         <v>0.7</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>21320</v>
+        <v>21360</v>
       </c>
       <c r="G14" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>21360</v>
       </c>
       <c r="I14" t="n">
-        <v>1.421333333333333</v>
+        <v>1.424</v>
       </c>
       <c r="J14" t="n">
-        <v>2.38232159614563</v>
+        <v>2.419494152069092</v>
       </c>
       <c r="K14" t="n">
-        <v>0.05155682563781738</v>
+        <v>0.04850530624389648</v>
       </c>
     </row>
     <row r="15">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
         <v>0.12</v>
@@ -1008,10 +1008,10 @@
         <v>1.421333333333333</v>
       </c>
       <c r="J15" t="n">
-        <v>2.463059425354004</v>
+        <v>1.501445651054382</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07022380828857422</v>
+        <v>0.06670749187469482</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C16" t="n">
         <v>0.12</v>
@@ -1033,22 +1033,22 @@
         <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>21280</v>
+        <v>21320</v>
       </c>
       <c r="G16" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H16" t="n">
         <v>21360</v>
       </c>
       <c r="I16" t="n">
-        <v>1.418666666666667</v>
+        <v>1.421333333333333</v>
       </c>
       <c r="J16" t="n">
-        <v>1.474252820014954</v>
+        <v>2.528186678886414</v>
       </c>
       <c r="K16" t="n">
-        <v>0.05684268474578857</v>
+        <v>0.05105125904083252</v>
       </c>
     </row>
     <row r="17">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C17" t="n">
         <v>0.12</v>
@@ -1067,25 +1067,25 @@
         <v>0.7</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>21240</v>
+        <v>21320</v>
       </c>
       <c r="G17" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H17" t="n">
-        <v>21280</v>
+        <v>21440</v>
       </c>
       <c r="I17" t="n">
-        <v>1.416</v>
+        <v>1.421333333333333</v>
       </c>
       <c r="J17" t="n">
-        <v>1.430264234542847</v>
+        <v>2.497936487197876</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01861214637756348</v>
+        <v>0.03037834167480469</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1171,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
         <v>21480</v>
@@ -1195,10 +1195,10 @@
         <v>1.432</v>
       </c>
       <c r="J2" t="n">
-        <v>2.488005995750427</v>
+        <v>1.543355226516724</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04052937030792236</v>
+        <v>0.01286745071411133</v>
       </c>
     </row>
     <row r="3">
@@ -1208,34 +1208,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
         <v>0.12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>21440</v>
+        <v>21480</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H3" t="n">
-        <v>21440</v>
+        <v>21520</v>
       </c>
       <c r="I3" t="n">
-        <v>1.429333333333333</v>
+        <v>1.432</v>
       </c>
       <c r="J3" t="n">
-        <v>1.642811059951782</v>
+        <v>2.435471892356873</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08171701431274414</v>
+        <v>0.07817637920379639</v>
       </c>
     </row>
     <row r="4">
@@ -1248,13 +1248,13 @@
         <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>21440</v>
@@ -1269,10 +1269,10 @@
         <v>1.429333333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>2.456923604011536</v>
+        <v>2.414004921913147</v>
       </c>
       <c r="K4" t="n">
-        <v>0.007896542549133301</v>
+        <v>0.009323000907897949</v>
       </c>
     </row>
     <row r="5">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
         <v>0.18</v>
@@ -1294,22 +1294,22 @@
         <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>21400</v>
+        <v>21440</v>
       </c>
       <c r="G5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>21440</v>
       </c>
       <c r="I5" t="n">
-        <v>1.426666666666667</v>
+        <v>1.429333333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>1.481065511703491</v>
+        <v>2.483439564704895</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05457472801208496</v>
+        <v>0.03146851062774658</v>
       </c>
     </row>
     <row r="6">
@@ -1319,13 +1319,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
         <v>0.18</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -1343,10 +1343,10 @@
         <v>1.426666666666667</v>
       </c>
       <c r="J6" t="n">
-        <v>2.382423877716064</v>
+        <v>1.505411624908447</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06171464920043945</v>
+        <v>0.02430438995361328</v>
       </c>
     </row>
     <row r="7">
@@ -1356,16 +1356,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
         <v>0.12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>21400</v>
@@ -1380,10 +1380,10 @@
         <v>1.426666666666667</v>
       </c>
       <c r="J7" t="n">
-        <v>2.392042398452759</v>
+        <v>1.579231142997742</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04751753807067871</v>
+        <v>0.02576267719268799</v>
       </c>
     </row>
     <row r="8">
@@ -1396,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>21400</v>
@@ -1417,10 +1417,10 @@
         <v>1.426666666666667</v>
       </c>
       <c r="J8" t="n">
-        <v>1.443514347076416</v>
+        <v>1.509523630142212</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01002669334411621</v>
+        <v>0.06187868118286133</v>
       </c>
     </row>
     <row r="9">
@@ -1454,10 +1454,10 @@
         <v>1.426666666666667</v>
       </c>
       <c r="J9" t="n">
-        <v>1.574904918670654</v>
+        <v>1.446903705596924</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1534233093261719</v>
+        <v>0.0218813419342041</v>
       </c>
     </row>
     <row r="10">
@@ -1470,31 +1470,31 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="D10" t="n">
         <v>0.8</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>21360</v>
+        <v>21400</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H10" t="n">
-        <v>21360</v>
+        <v>21440</v>
       </c>
       <c r="I10" t="n">
-        <v>1.424</v>
+        <v>1.426666666666667</v>
       </c>
       <c r="J10" t="n">
-        <v>2.412285566329956</v>
+        <v>2.431864261627197</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1339380741119385</v>
+        <v>0.01687431335449219</v>
       </c>
     </row>
     <row r="11">
@@ -1510,28 +1510,28 @@
         <v>0.18</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>21360</v>
+        <v>21400</v>
       </c>
       <c r="G11" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H11" t="n">
         <v>21440</v>
       </c>
       <c r="I11" t="n">
-        <v>1.424</v>
+        <v>1.426666666666667</v>
       </c>
       <c r="J11" t="n">
-        <v>2.379085540771484</v>
+        <v>2.492204189300537</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02057051658630371</v>
+        <v>0.1217477321624756</v>
       </c>
     </row>
   </sheetData>
@@ -1585,16 +1585,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>21350</v>
+        <v>21395</v>
       </c>
       <c r="C2" t="n">
-        <v>70.101966550773</v>
+        <v>45.03966505838434</v>
       </c>
       <c r="D2" t="n">
-        <v>21240</v>
+        <v>21320</v>
       </c>
       <c r="E2" t="n">
-        <v>21440</v>
+        <v>21480</v>
       </c>
     </row>
     <row r="3">
@@ -1602,10 +1602,10 @@
         <v>50</v>
       </c>
       <c r="B3" t="n">
-        <v>21385</v>
+        <v>21395</v>
       </c>
       <c r="C3" t="n">
-        <v>56.31543812693454</v>
+        <v>58.30951894845303</v>
       </c>
       <c r="D3" t="n">
         <v>21320</v>
@@ -1665,16 +1665,16 @@
         <v>0.12</v>
       </c>
       <c r="B2" t="n">
-        <v>21335</v>
+        <v>21395</v>
       </c>
       <c r="C2" t="n">
-        <v>63.91959234627735</v>
+        <v>69.07552802135207</v>
       </c>
       <c r="D2" t="n">
-        <v>21240</v>
+        <v>21320</v>
       </c>
       <c r="E2" t="n">
-        <v>21440</v>
+        <v>21480</v>
       </c>
     </row>
     <row r="3">
@@ -1682,16 +1682,16 @@
         <v>0.18</v>
       </c>
       <c r="B3" t="n">
-        <v>21400</v>
+        <v>21395</v>
       </c>
       <c r="C3" t="n">
-        <v>47.80914437337574</v>
+        <v>25.63479777846637</v>
       </c>
       <c r="D3" t="n">
-        <v>21320</v>
+        <v>21360</v>
       </c>
       <c r="E3" t="n">
-        <v>21480</v>
+        <v>21440</v>
       </c>
     </row>
   </sheetData>
@@ -1745,16 +1745,16 @@
         <v>0.7</v>
       </c>
       <c r="B2" t="n">
-        <v>21375</v>
+        <v>21380</v>
       </c>
       <c r="C2" t="n">
-        <v>76.90439333539923</v>
+        <v>42.76179870598802</v>
       </c>
       <c r="D2" t="n">
-        <v>21240</v>
+        <v>21320</v>
       </c>
       <c r="E2" t="n">
-        <v>21480</v>
+        <v>21440</v>
       </c>
     </row>
     <row r="3">
@@ -1762,16 +1762,16 @@
         <v>0.8</v>
       </c>
       <c r="B3" t="n">
-        <v>21360</v>
+        <v>21410</v>
       </c>
       <c r="C3" t="n">
-        <v>52.37229365663809</v>
+        <v>55.54920598635273</v>
       </c>
       <c r="D3" t="n">
-        <v>21280</v>
+        <v>21320</v>
       </c>
       <c r="E3" t="n">
-        <v>21440</v>
+        <v>21480</v>
       </c>
     </row>
   </sheetData>
@@ -1825,16 +1825,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>21390</v>
+        <v>21380</v>
       </c>
       <c r="C2" t="n">
-        <v>66.76183683170201</v>
+        <v>42.76179870598779</v>
       </c>
       <c r="D2" t="n">
-        <v>21280</v>
+        <v>21320</v>
       </c>
       <c r="E2" t="n">
-        <v>21480</v>
+        <v>21440</v>
       </c>
     </row>
     <row r="3">
@@ -1842,16 +1842,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>21345</v>
+        <v>21410</v>
       </c>
       <c r="C3" t="n">
-        <v>56.31543812693472</v>
+        <v>55.54920598635318</v>
       </c>
       <c r="D3" t="n">
-        <v>21240</v>
+        <v>21320</v>
       </c>
       <c r="E3" t="n">
-        <v>21400</v>
+        <v>21480</v>
       </c>
     </row>
   </sheetData>
@@ -1933,22 +1933,22 @@
         <v>21480</v>
       </c>
       <c r="D2" t="n">
-        <v>21367.5</v>
+        <v>21395</v>
       </c>
       <c r="E2" t="n">
-        <v>1.960568428039551</v>
+        <v>1.991285122931004</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
